--- a/Docs/report_abstract.xlsx
+++ b/Docs/report_abstract.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="50">
   <si>
     <t>EURUSD</t>
   </si>
@@ -190,6 +190,10 @@
   </si>
   <si>
     <t>suggestlot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USD,CAD经济体关系大，所以EURUSD与EURCAD共用仓位额度</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -347,9 +351,6 @@
     <xf numFmtId="9" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -381,6 +382,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -677,11 +681,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T26"/>
+  <dimension ref="A1:U26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="X24" sqref="X24"/>
+      <selection pane="bottomLeft" activeCell="R24" sqref="R24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -705,7 +709,7 @@
     <col min="21" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="5" customFormat="1">
+    <row r="1" spans="1:21" s="5" customFormat="1">
       <c r="A1" s="5" t="s">
         <v>21</v>
       </c>
@@ -767,172 +771,175 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:20" s="16" customFormat="1">
-      <c r="A2" s="15" t="s">
+    <row r="2" spans="1:21" s="15" customFormat="1">
+      <c r="A2" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="16">
+      <c r="B2" s="15">
         <v>-91</v>
       </c>
-      <c r="C2" s="16">
+      <c r="C2" s="15">
         <v>1473</v>
       </c>
-      <c r="D2" s="17">
+      <c r="D2" s="16">
         <v>0.4</v>
       </c>
-      <c r="E2" s="17">
+      <c r="E2" s="16">
         <v>0.66</v>
       </c>
-      <c r="F2" s="16">
+      <c r="F2" s="15">
         <v>627</v>
       </c>
-      <c r="G2" s="16">
+      <c r="G2" s="15">
         <v>474</v>
       </c>
-      <c r="H2" s="17">
+      <c r="H2" s="16">
         <v>0.42</v>
       </c>
-      <c r="I2" s="17">
+      <c r="I2" s="16">
         <v>0.35</v>
       </c>
-      <c r="J2" s="16">
+      <c r="J2" s="15">
         <v>461</v>
       </c>
-      <c r="K2" s="16">
+      <c r="K2" s="15">
         <v>87</v>
       </c>
-      <c r="L2" s="17">
+      <c r="L2" s="16">
         <v>0.38</v>
       </c>
-      <c r="M2" s="17">
+      <c r="M2" s="16">
         <v>0.32</v>
       </c>
-      <c r="N2" s="16" t="s">
+      <c r="N2" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="O2" s="16">
+      <c r="O2" s="15">
         <v>75</v>
       </c>
-      <c r="P2" s="16" t="s">
+      <c r="P2" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="Q2" s="16">
+      <c r="Q2" s="15">
         <v>85</v>
       </c>
-      <c r="R2" s="16" t="s">
+      <c r="R2" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="S2" s="16">
+      <c r="S2" s="15">
         <v>82</v>
       </c>
-      <c r="T2" s="16">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" s="20" customFormat="1">
-      <c r="A3" s="20" t="s">
+      <c r="T2" s="15">
+        <v>0.01</v>
+      </c>
+      <c r="U2" s="15" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" s="19" customFormat="1">
+      <c r="A3" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="20">
+      <c r="B3" s="19">
         <v>-950</v>
       </c>
-      <c r="C3" s="20">
+      <c r="C3" s="19">
         <v>875</v>
       </c>
-      <c r="D3" s="21">
+      <c r="D3" s="20">
         <v>0.36</v>
       </c>
-      <c r="E3" s="21">
+      <c r="E3" s="20">
         <v>0.96</v>
       </c>
-      <c r="F3" s="20">
+      <c r="F3" s="19">
         <v>-163</v>
       </c>
-      <c r="G3" s="20">
+      <c r="G3" s="19">
         <v>374</v>
       </c>
-      <c r="H3" s="21">
+      <c r="H3" s="20">
         <v>0.4</v>
       </c>
-      <c r="I3" s="21">
+      <c r="I3" s="20">
         <v>0.66</v>
       </c>
-      <c r="J3" s="20">
+      <c r="J3" s="19">
         <v>-353</v>
       </c>
-      <c r="K3" s="20">
+      <c r="K3" s="19">
         <v>67</v>
       </c>
-      <c r="L3" s="21">
+      <c r="L3" s="20">
         <v>0.36</v>
       </c>
-      <c r="M3" s="21">
+      <c r="M3" s="20">
         <v>0.68</v>
       </c>
     </row>
-    <row r="4" spans="1:20">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:21" s="17" customFormat="1">
+      <c r="A4" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="17">
         <v>-951</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="17">
         <v>825</v>
       </c>
-      <c r="D4" s="14">
+      <c r="D4" s="25">
         <v>0.377</v>
       </c>
-      <c r="E4" s="13">
+      <c r="E4" s="18">
         <v>0.96</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="17">
         <v>-358</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G4" s="17">
         <v>433</v>
       </c>
-      <c r="H4" s="9">
+      <c r="H4" s="18">
         <v>0.36</v>
       </c>
-      <c r="I4" s="9">
+      <c r="I4" s="18">
         <v>0.6</v>
       </c>
-      <c r="J4" s="3">
+      <c r="J4" s="17">
         <v>660</v>
       </c>
-      <c r="K4" s="3">
+      <c r="K4" s="17">
         <v>65</v>
       </c>
-      <c r="L4" s="10">
+      <c r="L4" s="18">
         <v>0.45</v>
       </c>
-      <c r="M4" s="10">
+      <c r="M4" s="18">
         <v>0.26</v>
       </c>
-      <c r="N4" s="2" t="s">
+      <c r="N4" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="O4" s="2">
+      <c r="O4" s="17">
         <v>80</v>
       </c>
-      <c r="P4" s="2" t="s">
+      <c r="P4" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="Q4" s="2">
+      <c r="Q4" s="17">
         <v>78</v>
       </c>
-      <c r="R4" s="2" t="s">
+      <c r="R4" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="S4" s="2">
+      <c r="S4" s="17">
         <v>78</v>
       </c>
-      <c r="T4" s="2">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20">
+      <c r="T4" s="17">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
@@ -991,7 +998,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="6" spans="1:20">
+    <row r="6" spans="1:21">
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
@@ -1050,69 +1057,69 @@
         <v>65</v>
       </c>
     </row>
-    <row r="7" spans="1:20">
-      <c r="A7" s="2" t="s">
+    <row r="7" spans="1:21" s="17" customFormat="1">
+      <c r="A7" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="17">
         <v>-143</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="17">
         <v>725</v>
       </c>
-      <c r="D7" s="13">
+      <c r="D7" s="18">
         <v>0.42</v>
       </c>
-      <c r="E7" s="13">
+      <c r="E7" s="18">
         <v>0.47</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="17">
         <v>480</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G7" s="17">
         <v>343</v>
       </c>
-      <c r="H7" s="9">
+      <c r="H7" s="18">
         <v>0.43</v>
       </c>
-      <c r="I7" s="9">
+      <c r="I7" s="18">
         <v>0.24</v>
       </c>
-      <c r="J7" s="3">
+      <c r="J7" s="17">
         <v>-156</v>
       </c>
-      <c r="K7" s="3">
+      <c r="K7" s="17">
         <v>75</v>
       </c>
-      <c r="L7" s="10">
+      <c r="L7" s="18">
         <v>0.28999999999999998</v>
       </c>
-      <c r="M7" s="10">
+      <c r="M7" s="18">
         <v>0.51</v>
       </c>
-      <c r="N7" s="2" t="s">
+      <c r="N7" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="O7" s="2">
+      <c r="O7" s="17">
         <v>73</v>
       </c>
-      <c r="P7" s="2" t="s">
+      <c r="P7" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="Q7" s="17">
         <v>70</v>
       </c>
-      <c r="R7" s="2" t="s">
+      <c r="R7" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="S7" s="2">
+      <c r="S7" s="17">
         <v>73</v>
       </c>
-      <c r="T7" s="2">
+      <c r="T7" s="17">
         <v>0.01</v>
       </c>
     </row>
-    <row r="9" spans="1:20">
+    <row r="9" spans="1:21">
       <c r="A9" s="2" t="s">
         <v>6</v>
       </c>
@@ -1171,48 +1178,48 @@
         <v>60</v>
       </c>
     </row>
-    <row r="10" spans="1:20" s="20" customFormat="1">
-      <c r="A10" s="20" t="s">
+    <row r="10" spans="1:21" s="19" customFormat="1">
+      <c r="A10" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="20">
+      <c r="B10" s="19">
         <v>-951</v>
       </c>
-      <c r="C10" s="20">
+      <c r="C10" s="19">
         <v>641</v>
       </c>
-      <c r="D10" s="21">
+      <c r="D10" s="20">
         <v>0.36</v>
       </c>
-      <c r="E10" s="21">
+      <c r="E10" s="20">
         <v>0.95</v>
       </c>
-      <c r="F10" s="20">
+      <c r="F10" s="19">
         <v>-951</v>
       </c>
-      <c r="G10" s="20">
+      <c r="G10" s="19">
         <v>387</v>
       </c>
-      <c r="H10" s="21">
+      <c r="H10" s="20">
         <v>0.36</v>
       </c>
-      <c r="I10" s="21">
+      <c r="I10" s="20">
         <v>0.96</v>
       </c>
-      <c r="J10" s="20">
+      <c r="J10" s="19">
         <v>78</v>
       </c>
-      <c r="K10" s="20">
+      <c r="K10" s="19">
         <v>74</v>
       </c>
-      <c r="L10" s="21">
+      <c r="L10" s="20">
         <v>0.36</v>
       </c>
-      <c r="M10" s="21">
+      <c r="M10" s="20">
         <v>0.34</v>
       </c>
     </row>
-    <row r="11" spans="1:20">
+    <row r="11" spans="1:21">
       <c r="A11" s="2" t="s">
         <v>8</v>
       </c>
@@ -1262,130 +1269,130 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:20" s="20" customFormat="1">
-      <c r="A12" s="20" t="s">
+    <row r="12" spans="1:21" s="19" customFormat="1">
+      <c r="A12" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="20" t="s">
+      <c r="B12" s="19" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:20" s="18" customFormat="1">
-      <c r="A13" s="18" t="s">
+    <row r="13" spans="1:21" s="17" customFormat="1">
+      <c r="A13" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="18">
+      <c r="B13" s="17">
         <v>-190</v>
       </c>
-      <c r="C13" s="18">
+      <c r="C13" s="17">
         <v>2188</v>
       </c>
-      <c r="D13" s="19">
+      <c r="D13" s="18">
         <v>0.31</v>
       </c>
-      <c r="E13" s="19">
+      <c r="E13" s="18">
         <v>0.82</v>
       </c>
-      <c r="F13" s="18">
+      <c r="F13" s="17">
         <v>596</v>
       </c>
-      <c r="G13" s="18">
+      <c r="G13" s="17">
         <v>543</v>
       </c>
-      <c r="H13" s="19">
+      <c r="H13" s="18">
         <v>0.38</v>
       </c>
-      <c r="I13" s="19">
+      <c r="I13" s="18">
         <v>0.24</v>
       </c>
-      <c r="J13" s="18">
+      <c r="J13" s="17">
         <v>254</v>
       </c>
-      <c r="K13" s="18">
+      <c r="K13" s="17">
         <v>78</v>
       </c>
-      <c r="L13" s="19">
+      <c r="L13" s="18">
         <v>0.36</v>
       </c>
-      <c r="M13" s="19">
+      <c r="M13" s="18">
         <v>0.3</v>
       </c>
-      <c r="N13" s="18" t="s">
+      <c r="N13" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="O13" s="18">
+      <c r="O13" s="17">
         <v>75</v>
       </c>
-      <c r="P13" s="18" t="s">
+      <c r="P13" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="Q13" s="18">
+      <c r="Q13" s="17">
         <v>86</v>
       </c>
-      <c r="R13" s="18" t="s">
+      <c r="R13" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="S13" s="18">
+      <c r="S13" s="17">
         <v>80</v>
       </c>
-      <c r="T13" s="18">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" s="24" customFormat="1">
-      <c r="A15" s="24" t="s">
+      <c r="T13" s="17">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" s="23" customFormat="1">
+      <c r="A15" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="24">
+      <c r="B15" s="23">
         <v>-934</v>
       </c>
-      <c r="C15" s="24">
+      <c r="C15" s="23">
         <v>1115</v>
       </c>
-      <c r="D15" s="25">
+      <c r="D15" s="24">
         <v>0.38</v>
       </c>
-      <c r="E15" s="25">
+      <c r="E15" s="24">
         <v>0.95</v>
       </c>
-      <c r="F15" s="24">
+      <c r="F15" s="23">
         <v>224</v>
       </c>
-      <c r="G15" s="24">
+      <c r="G15" s="23">
         <v>481</v>
       </c>
-      <c r="H15" s="25">
+      <c r="H15" s="24">
         <v>0.41</v>
       </c>
-      <c r="I15" s="25">
+      <c r="I15" s="24">
         <v>0.84</v>
       </c>
-      <c r="J15" s="24">
+      <c r="J15" s="23">
         <v>392</v>
       </c>
-      <c r="K15" s="24">
+      <c r="K15" s="23">
         <v>91</v>
       </c>
-      <c r="L15" s="25">
+      <c r="L15" s="24">
         <v>0.4</v>
       </c>
-      <c r="M15" s="25">
+      <c r="M15" s="24">
         <v>0.55000000000000004</v>
       </c>
-      <c r="N15" s="24" t="s">
+      <c r="N15" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="O15" s="24">
+      <c r="O15" s="23">
         <v>60</v>
       </c>
-      <c r="Q15" s="24">
+      <c r="Q15" s="23">
         <v>50</v>
       </c>
-      <c r="S15" s="24">
+      <c r="S15" s="23">
         <v>55</v>
       </c>
     </row>
-    <row r="16" spans="1:20">
+    <row r="16" spans="1:21">
       <c r="A16" s="2" t="s">
         <v>12</v>
       </c>
@@ -1425,10 +1432,10 @@
       <c r="M16" s="10">
         <v>0.47</v>
       </c>
-      <c r="N16" s="24" t="s">
+      <c r="N16" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="O16" s="24">
+      <c r="O16" s="23">
         <v>60</v>
       </c>
       <c r="Q16" s="2">
@@ -1438,52 +1445,52 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:20" s="20" customFormat="1">
-      <c r="A17" s="20" t="s">
+    <row r="17" spans="1:20" s="19" customFormat="1">
+      <c r="A17" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="20">
+      <c r="B17" s="19">
         <v>-933</v>
       </c>
-      <c r="C17" s="20">
+      <c r="C17" s="19">
         <v>670</v>
       </c>
-      <c r="D17" s="21">
+      <c r="D17" s="20">
         <v>0.37</v>
       </c>
-      <c r="E17" s="21">
+      <c r="E17" s="20">
         <v>0.94</v>
       </c>
-      <c r="F17" s="20">
+      <c r="F17" s="19">
         <v>-735</v>
       </c>
-      <c r="G17" s="20">
+      <c r="G17" s="19">
         <v>620</v>
       </c>
-      <c r="H17" s="21">
+      <c r="H17" s="20">
         <v>0.39</v>
       </c>
-      <c r="I17" s="21">
+      <c r="I17" s="20">
         <v>0.92</v>
       </c>
-      <c r="J17" s="20">
+      <c r="J17" s="19">
         <v>-933</v>
       </c>
-      <c r="K17" s="20">
+      <c r="K17" s="19">
         <v>49</v>
       </c>
-      <c r="L17" s="21">
+      <c r="L17" s="20">
         <v>0.27</v>
       </c>
-      <c r="M17" s="21">
+      <c r="M17" s="20">
         <v>0.94</v>
       </c>
     </row>
-    <row r="18" spans="1:20" s="20" customFormat="1">
-      <c r="A18" s="20" t="s">
+    <row r="18" spans="1:20" s="19" customFormat="1">
+      <c r="A18" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="20" t="s">
+      <c r="B18" s="19" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1540,268 +1547,268 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:20" s="24" customFormat="1">
-      <c r="A21" s="24" t="s">
+    <row r="21" spans="1:20" s="23" customFormat="1">
+      <c r="A21" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="B21" s="24">
+      <c r="B21" s="23">
         <v>-931</v>
       </c>
-      <c r="C21" s="24">
+      <c r="C21" s="23">
         <v>272</v>
       </c>
-      <c r="D21" s="25">
+      <c r="D21" s="24">
         <v>0.32</v>
       </c>
-      <c r="E21" s="25">
+      <c r="E21" s="24">
         <v>0.93</v>
       </c>
-      <c r="F21" s="24">
+      <c r="F21" s="23">
         <v>104</v>
       </c>
-      <c r="G21" s="24">
+      <c r="G21" s="23">
         <v>342</v>
       </c>
-      <c r="H21" s="25">
+      <c r="H21" s="24">
         <v>0.39</v>
       </c>
-      <c r="I21" s="25">
+      <c r="I21" s="24">
         <v>0.4</v>
       </c>
-      <c r="J21" s="24">
+      <c r="J21" s="23">
         <v>460</v>
       </c>
-      <c r="K21" s="24">
+      <c r="K21" s="23">
         <v>58</v>
       </c>
-      <c r="L21" s="25">
+      <c r="L21" s="24">
         <v>0.28999999999999998</v>
       </c>
-      <c r="M21" s="25">
+      <c r="M21" s="24">
         <v>0.4</v>
       </c>
-      <c r="N21" s="24" t="s">
+      <c r="N21" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="O21" s="24">
+      <c r="O21" s="23">
         <v>60</v>
       </c>
-      <c r="P21" s="24" t="s">
+      <c r="P21" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="Q21" s="24">
+      <c r="Q21" s="23">
         <v>60</v>
       </c>
-      <c r="R21" s="24" t="s">
+      <c r="R21" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="S21" s="24">
+      <c r="S21" s="23">
         <v>60</v>
       </c>
     </row>
-    <row r="22" spans="1:20" s="22" customFormat="1">
-      <c r="A22" s="22" t="s">
+    <row r="22" spans="1:20" s="21" customFormat="1">
+      <c r="A22" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="B22" s="22">
+      <c r="B22" s="21">
         <v>1009</v>
       </c>
-      <c r="C22" s="22">
+      <c r="C22" s="21">
         <v>1594</v>
       </c>
-      <c r="D22" s="23">
+      <c r="D22" s="22">
         <v>0.34</v>
       </c>
-      <c r="E22" s="23">
+      <c r="E22" s="22">
         <v>0.3</v>
       </c>
-      <c r="F22" s="22">
+      <c r="F22" s="21">
         <v>1512</v>
       </c>
-      <c r="G22" s="22">
+      <c r="G22" s="21">
         <v>402</v>
       </c>
-      <c r="H22" s="23">
+      <c r="H22" s="22">
         <v>0.37</v>
       </c>
-      <c r="I22" s="23">
+      <c r="I22" s="22">
         <v>0.39</v>
       </c>
-      <c r="J22" s="22">
+      <c r="J22" s="21">
         <v>259</v>
       </c>
-      <c r="K22" s="22">
+      <c r="K22" s="21">
         <v>63</v>
       </c>
-      <c r="L22" s="23">
+      <c r="L22" s="22">
         <v>0.35</v>
       </c>
-      <c r="M22" s="23">
+      <c r="M22" s="22">
         <v>0.59</v>
       </c>
-      <c r="N22" s="22" t="s">
+      <c r="N22" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="O22" s="22">
+      <c r="O22" s="21">
         <v>90</v>
       </c>
-      <c r="P22" s="22" t="s">
+      <c r="P22" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="Q22" s="22">
+      <c r="Q22" s="21">
         <v>95</v>
       </c>
-      <c r="R22" s="22" t="s">
+      <c r="R22" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="S22" s="22">
+      <c r="S22" s="21">
         <v>92</v>
       </c>
-      <c r="T22" s="22">
+      <c r="T22" s="21">
         <v>0.02</v>
       </c>
     </row>
-    <row r="24" spans="1:20">
-      <c r="A24" s="2" t="s">
+    <row r="24" spans="1:20" s="17" customFormat="1">
+      <c r="A24" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="B24" s="1">
+      <c r="B24" s="17">
         <v>528</v>
       </c>
-      <c r="C24" s="1">
+      <c r="C24" s="17">
         <v>2103</v>
       </c>
-      <c r="D24" s="13">
+      <c r="D24" s="18">
         <v>0.34</v>
       </c>
-      <c r="E24" s="13">
+      <c r="E24" s="18">
         <v>0.37</v>
       </c>
-      <c r="F24" s="4">
+      <c r="F24" s="17">
         <v>625</v>
       </c>
-      <c r="G24" s="4">
+      <c r="G24" s="17">
         <v>527</v>
       </c>
-      <c r="H24" s="9">
+      <c r="H24" s="18">
         <v>0.37</v>
       </c>
-      <c r="I24" s="9">
+      <c r="I24" s="18">
         <v>0.43</v>
       </c>
-      <c r="J24" s="3">
+      <c r="J24" s="17">
         <v>-631</v>
       </c>
-      <c r="K24" s="3">
+      <c r="K24" s="17">
         <v>90</v>
       </c>
-      <c r="L24" s="10">
+      <c r="L24" s="18">
         <v>0.39</v>
       </c>
-      <c r="M24" s="10">
+      <c r="M24" s="18">
         <v>0.9</v>
       </c>
-      <c r="N24" s="2" t="s">
+      <c r="N24" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="O24" s="2">
+      <c r="O24" s="17">
         <v>60</v>
       </c>
-      <c r="P24" s="2" t="s">
+      <c r="P24" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="Q24" s="2">
+      <c r="Q24" s="17">
         <v>70</v>
       </c>
-      <c r="R24" s="2" t="s">
+      <c r="R24" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="S24" s="2">
+      <c r="S24" s="17">
         <v>70</v>
       </c>
-      <c r="T24" s="2">
+      <c r="T24" s="17">
         <v>0.01</v>
       </c>
     </row>
-    <row r="25" spans="1:20" s="20" customFormat="1">
-      <c r="A25" s="20" t="s">
+    <row r="25" spans="1:20" s="19" customFormat="1">
+      <c r="A25" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="B25" s="20">
+      <c r="B25" s="19">
         <v>-951</v>
       </c>
-      <c r="C25" s="20">
+      <c r="C25" s="19">
         <v>1281</v>
       </c>
-      <c r="D25" s="21">
+      <c r="D25" s="20">
         <v>0.32</v>
       </c>
-      <c r="E25" s="21">
+      <c r="E25" s="20">
         <v>0.95</v>
       </c>
-      <c r="F25" s="20">
+      <c r="F25" s="19">
         <v>-287</v>
       </c>
-      <c r="G25" s="20">
+      <c r="G25" s="19">
         <v>518</v>
       </c>
-      <c r="H25" s="21">
+      <c r="H25" s="20">
         <v>0.33</v>
       </c>
-      <c r="I25" s="21">
+      <c r="I25" s="20">
         <v>0.51</v>
       </c>
-      <c r="J25" s="20">
+      <c r="J25" s="19">
         <v>-1</v>
       </c>
-      <c r="K25" s="20">
+      <c r="K25" s="19">
         <v>84</v>
       </c>
-      <c r="L25" s="21">
+      <c r="L25" s="20">
         <v>0.3</v>
       </c>
-      <c r="M25" s="21">
+      <c r="M25" s="20">
         <v>0.48</v>
       </c>
     </row>
-    <row r="26" spans="1:20" s="20" customFormat="1">
-      <c r="A26" s="20" t="s">
+    <row r="26" spans="1:20" s="19" customFormat="1">
+      <c r="A26" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="B26" s="20">
+      <c r="B26" s="19">
         <v>-941</v>
       </c>
-      <c r="C26" s="20">
+      <c r="C26" s="19">
         <v>1398</v>
       </c>
-      <c r="D26" s="21">
+      <c r="D26" s="20">
         <v>0.41</v>
       </c>
-      <c r="E26" s="21">
+      <c r="E26" s="20">
         <v>0.96</v>
       </c>
-      <c r="F26" s="20">
+      <c r="F26" s="19">
         <v>-252</v>
       </c>
-      <c r="G26" s="20">
+      <c r="G26" s="19">
         <v>630</v>
       </c>
-      <c r="H26" s="21">
+      <c r="H26" s="20">
         <v>0.4</v>
       </c>
-      <c r="I26" s="21">
+      <c r="I26" s="20">
         <v>0.74</v>
       </c>
-      <c r="J26" s="20">
+      <c r="J26" s="19">
         <v>-559</v>
       </c>
-      <c r="K26" s="20">
+      <c r="K26" s="19">
         <v>120</v>
       </c>
-      <c r="L26" s="21">
+      <c r="L26" s="20">
         <v>0.32</v>
       </c>
-      <c r="M26" s="21">
+      <c r="M26" s="20">
         <v>0.83</v>
       </c>
     </row>

--- a/Docs/report_abstract.xlsx
+++ b/Docs/report_abstract.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="52">
   <si>
     <t>EURUSD</t>
   </si>
@@ -161,10 +161,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1h</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>我choose</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -193,7 +189,18 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>注:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>USD,CAD经济体关系大，所以EURUSD与EURCAD共用仓位额度</t>
+  </si>
+  <si>
+    <t>非农数据公布天强制close会造成利润大幅减少，建议4H级别以上不强制close，只是不开新单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>beta</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -681,11 +688,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U26"/>
+  <dimension ref="A1:U30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R24" sqref="R24"/>
+      <selection pane="bottomLeft" activeCell="B1" sqref="B1:M1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -703,7 +710,7 @@
     <col min="11" max="11" width="9" style="3" hidden="1" customWidth="1"/>
     <col min="12" max="12" width="8" style="3" hidden="1" customWidth="1"/>
     <col min="13" max="13" width="8.25" style="3" hidden="1" customWidth="1"/>
-    <col min="14" max="17" width="9" style="2" hidden="1" customWidth="1"/>
+    <col min="14" max="17" width="9" style="2" customWidth="1"/>
     <col min="18" max="19" width="9" style="2"/>
     <col min="20" max="20" width="12.5" style="2" customWidth="1"/>
     <col min="21" max="16384" width="9" style="2"/>
@@ -750,25 +757,28 @@
         <v>33</v>
       </c>
       <c r="N1" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="O1" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="P1" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q1" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="R1" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="P1" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q1" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="R1" s="5" t="s">
+      <c r="S1" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="S1" s="5" t="s">
+      <c r="T1" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="T1" s="5" t="s">
-        <v>48</v>
+      <c r="U1" s="5" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:21" s="15" customFormat="1">
@@ -832,8 +842,8 @@
       <c r="T2" s="15">
         <v>0.01</v>
       </c>
-      <c r="U2" s="15" t="s">
-        <v>49</v>
+      <c r="U2" s="15">
+        <v>622</v>
       </c>
     </row>
     <row r="3" spans="1:21" s="19" customFormat="1">
@@ -938,6 +948,9 @@
       <c r="T4" s="17">
         <v>0.01</v>
       </c>
+      <c r="U4" s="17">
+        <v>655</v>
+      </c>
     </row>
     <row r="5" spans="1:21">
       <c r="A5" s="2" t="s">
@@ -1118,6 +1131,9 @@
       <c r="T7" s="17">
         <v>0.01</v>
       </c>
+      <c r="U7" s="17">
+        <v>442</v>
+      </c>
     </row>
     <row r="9" spans="1:21">
       <c r="A9" s="2" t="s">
@@ -1177,6 +1193,9 @@
       <c r="S9" s="2">
         <v>60</v>
       </c>
+      <c r="U9" s="2">
+        <v>-8</v>
+      </c>
     </row>
     <row r="10" spans="1:21" s="19" customFormat="1">
       <c r="A10" s="19" t="s">
@@ -1338,6 +1357,9 @@
       <c r="T13" s="17">
         <v>0.01</v>
       </c>
+      <c r="U13" s="17">
+        <v>603</v>
+      </c>
     </row>
     <row r="15" spans="1:21" s="23" customFormat="1">
       <c r="A15" s="23" t="s">
@@ -1445,7 +1467,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:20" s="19" customFormat="1">
+    <row r="17" spans="1:21" s="19" customFormat="1">
       <c r="A17" s="19" t="s">
         <v>13</v>
       </c>
@@ -1486,7 +1508,7 @@
         <v>0.94</v>
       </c>
     </row>
-    <row r="18" spans="1:20" s="19" customFormat="1">
+    <row r="18" spans="1:21" s="19" customFormat="1">
       <c r="A18" s="19" t="s">
         <v>14</v>
       </c>
@@ -1494,7 +1516,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="20" spans="1:20">
+    <row r="20" spans="1:21">
       <c r="A20" s="2" t="s">
         <v>15</v>
       </c>
@@ -1547,7 +1569,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:20" s="23" customFormat="1">
+    <row r="21" spans="1:21" s="23" customFormat="1">
       <c r="A21" s="23" t="s">
         <v>16</v>
       </c>
@@ -1606,7 +1628,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="22" spans="1:20" s="21" customFormat="1">
+    <row r="22" spans="1:21" s="21" customFormat="1">
       <c r="A22" s="21" t="s">
         <v>17</v>
       </c>
@@ -1667,8 +1689,11 @@
       <c r="T22" s="21">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="24" spans="1:20" s="17" customFormat="1">
+      <c r="U22" s="21">
+        <v>1779</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" s="17" customFormat="1">
       <c r="A24" s="17" t="s">
         <v>18</v>
       </c>
@@ -1715,13 +1740,13 @@
         <v>60</v>
       </c>
       <c r="P24" s="17" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="Q24" s="17">
         <v>70</v>
       </c>
       <c r="R24" s="17" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="S24" s="17">
         <v>70</v>
@@ -1729,8 +1754,11 @@
       <c r="T24" s="17">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="25" spans="1:20" s="19" customFormat="1">
+      <c r="U24" s="17">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" s="19" customFormat="1">
       <c r="A25" s="19" t="s">
         <v>19</v>
       </c>
@@ -1771,7 +1799,7 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="26" spans="1:20" s="19" customFormat="1">
+    <row r="26" spans="1:21" s="19" customFormat="1">
       <c r="A26" s="19" t="s">
         <v>20</v>
       </c>
@@ -1810,6 +1838,21 @@
       </c>
       <c r="M26" s="20">
         <v>0.83</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21">
+      <c r="A27" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21">
+      <c r="A29" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21">
+      <c r="A30" s="2" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/Docs/report_abstract.xlsx
+++ b/Docs/report_abstract.xlsx
@@ -1355,7 +1355,7 @@
         <v>80</v>
       </c>
       <c r="T13" s="17">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="U13" s="17">
         <v>603</v>
